--- a/xlsx/微軟_intext.xlsx
+++ b/xlsx/微軟_intext.xlsx
@@ -14954,7 +14954,7 @@
         <v>644</v>
       </c>
       <c r="G345" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
